--- a/data/apicases.xlsx
+++ b/data/apicases.xlsx
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>未通过</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>未通过</t>
         </is>
       </c>
     </row>
